--- a/sampleInputOutput/output/sampleOutput.xlsx
+++ b/sampleInputOutput/output/sampleOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javed/Scala_Workspace/fxengine-main/sampleInputOutput/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEB3822-8B6B-4CA0-8617-9BF4F7362F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD22EDC7-14BC-054A-83B4-30617C9293B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,31 +337,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C1">
+        <v>1623239774</v>
+      </c>
+      <c r="D1">
+        <v>72</v>
+      </c>
+      <c r="E1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>1623239781</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>89</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>7596</v>
       </c>
     </row>
